--- a/ActiTime-AutomationLevel-4/TestScriptDataFiles/CreateCustomer.xlsx
+++ b/ActiTime-AutomationLevel-4/TestScriptDataFiles/CreateCustomer.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="4608"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC04" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
